--- a/experiments/evaluation/llm-seed/roberta-base_15/rem-80_original/ori4/17/incorrect_predictions_17.xlsx
+++ b/experiments/evaluation/llm-seed/roberta-base_15/rem-80_original/ori4/17/incorrect_predictions_17.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -462,49 +462,24 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Camera error . AI Spot-Check failed . Restart camera .</t>
+          <t>Failed to take off . Check the USB connection with aircraft . Contact DJI Support if this error persists after restarting .</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>AI Spot-Check failed</t>
+          <t>Contact DJI Support if this error persists after restarting</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>3-5</t>
+          <t>12-20</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
-        <is>
-          <t>Missing</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>11</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Failed to take off . Check the USB connection with aircraft . Contact DJI Support if this error persists after restarting .</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>Contact DJI Support if this error persists after restarting</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>12-20</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
         <is>
           <t>Missing</t>
         </is>

--- a/experiments/evaluation/llm-seed/roberta-base_15/rem-80_original/ori4/17/incorrect_predictions_17.xlsx
+++ b/experiments/evaluation/llm-seed/roberta-base_15/rem-80_original/ori4/17/incorrect_predictions_17.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -462,24 +462,49 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Camera error . AI Spot-Check failed . Restart camera .</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>AI Spot-Check failed</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>3-5</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Missing</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
         <v>11</v>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="B3" t="inlineStr">
         <is>
           <t>Failed to take off . Check the USB connection with aircraft . Contact DJI Support if this error persists after restarting .</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="C3" t="inlineStr">
         <is>
           <t>Contact DJI Support if this error persists after restarting</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="D3" t="inlineStr">
         <is>
           <t>12-20</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>Missing</t>
         </is>
